--- a/Trọ út.xlsx
+++ b/Trọ út.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="14400" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Địa chỉ</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>https://www.google.com/maps/dir/540+%C4%90.+C%C3%A1ch+M%E1%BA%A1ng+Th%C3%A1ng+8,+Ph%C6%B0%E1%BB%9Dng+11,+Qu%E1%BA%ADn+3,+H%E1%BB%93+Ch%C3%AD+Minh,+Vi%E1%BB%87t+Nam/%C4%90%E1%BA%A1i+H%E1%BB%8Dc+Kinh+T%E1%BA%BF+TP.HCM+(UEH)+CS+A,+Nguy%E1%BB%85n+%C4%90%C3%ACnh+Chi%E1%BB%83u,+Vo+Thi+Sau+Ward,+Qu%E1%BA%ADn+3,+H%E1%BB%93+Ch%C3%AD+Minh/@10.7963764,106.6809609,13.25z/data=!4m14!4m13!1m5!1m1!1s0x31752ed22a4ab9a9:0x2120dcadf74f76e6!2m2!1d106.6675261!2d10.7863598!1m5!1m1!1s0x31752f36c74caa99:0x743c446a2eef20a5!2m2!1d106.6947434!2d10.7830898!3e0?entry=ttu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6tr5 </t>
   </si>
   <si>
     <t xml:space="preserve">Điện 4k, nước 100k/ng , phí dv 150k/phòng 
@@ -87,6 +90,12 @@
   </si>
   <si>
     <t>0908937525</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/zKB8GSacwHEbh1hJ/</t>
+  </si>
+  <si>
+    <t>0399555501</t>
   </si>
 </sst>
 </file>
@@ -718,25 +727,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1271,21 +1280,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="68.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="20.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="38.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="68.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.8571428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.2857142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7142857142857" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="2"/>
+    <col min="7" max="7" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1315,40 +1326,51 @@
       </c>
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="5:7">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1357,6 +1379,7 @@
     <hyperlink ref="E2" r:id="rId2" display="https://www.facebook.com/share/p/YJiJXiVnKvyCBDwJ/"/>
     <hyperlink ref="E3" r:id="rId3" display="https://www.facebook.com/share/p/vkpczG3zJQ9dpTrV/"/>
     <hyperlink ref="B3" r:id="rId4" display="https://www.google.com/maps/place/%C4%90.+Nguy%E1%BB%85n+V%C4%83n+Tr%E1%BB%97i,+Ph%C3%BA+Nhu%E1%BA%ADn,+H%E1%BB%93+Ch%C3%AD+Minh,+Vi%E1%BB%87t+Nam/@10.7974953,106.6705999,16.5z/data=!4m6!3m5!1s0x317529298baa0a93:0xeda27ad2ef832c21!8m2!3d10.7958681!4d106.6750014!16s%2Fg%2F1vl9n_2y?entry=ttu"/>
+    <hyperlink ref="E4" r:id="rId5" display="https://www.facebook.com/share/p/zKB8GSacwHEbh1hJ/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Trọ út.xlsx
+++ b/Trọ út.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Địa chỉ</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>0399555501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 441/25 điện biên phủ  phường 25 bình thạnh </t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir/%C4%90%E1%BA%A1i+H%E1%BB%8Dc+Kinh+T%E1%BA%BF+TP.HCM+(UEH)+CS+A,+Nguy%E1%BB%85n+%C4%90%C3%ACnh+Chi%E1%BB%83u,+Vo+Thi+Sau+Ward,+Qu%E1%BA%ADn+3,+H%E1%BB%93+Ch%C3%AD+Minh/441+%C4%90.+%C4%90i%E1%BB%87n+Bi%C3%AAn+Ph%E1%BB%A7,+Ph%C6%B0%E1%BB%9Dng+25,+B%C3%ACnh+Th%E1%BA%A1nh,+H%E1%BB%93+Ch%C3%AD+Minh,+Vi%E1%BB%87t+Nam/@10.798622,106.7079389,16z/data=!4m14!4m13!1m5!1m1!1s0x31752f36c74caa99:0x743c446a2eef20a5!2m2!1d106.6947434!2d10.7830898!1m5!1m1!1s0x317528a51f3d9c35:0xfacd679ef1a8fb68!2m2!1d106.7133169!2d10.8017503!3e0?entry=ttu</t>
+  </si>
+  <si>
+    <t>3tr8</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ : điện 3,4k / khối , nước 13k / khối , rát 15k/ tháng , mạng và xe miễn phí</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/KcvSvkwY2S1m3sse/</t>
   </si>
 </sst>
 </file>
@@ -719,14 +734,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1280,19 +1292,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="68.8571428571429" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.8571428571429" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.2857142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" style="3" customWidth="1"/>
+    <col min="4" max="4" width="82" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7142857142857" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="2"/>
     <col min="7" max="7" width="13.7142857142857" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.1428571428571" style="2" customWidth="1"/>
@@ -1329,19 +1341,19 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1349,28 +1361,45 @@
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="45" spans="5:7">
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1380,6 +1409,8 @@
     <hyperlink ref="E3" r:id="rId3" display="https://www.facebook.com/share/p/vkpczG3zJQ9dpTrV/"/>
     <hyperlink ref="B3" r:id="rId4" display="https://www.google.com/maps/place/%C4%90.+Nguy%E1%BB%85n+V%C4%83n+Tr%E1%BB%97i,+Ph%C3%BA+Nhu%E1%BA%ADn,+H%E1%BB%93+Ch%C3%AD+Minh,+Vi%E1%BB%87t+Nam/@10.7974953,106.6705999,16.5z/data=!4m6!3m5!1s0x317529298baa0a93:0xeda27ad2ef832c21!8m2!3d10.7958681!4d106.6750014!16s%2Fg%2F1vl9n_2y?entry=ttu"/>
     <hyperlink ref="E4" r:id="rId5" display="https://www.facebook.com/share/p/zKB8GSacwHEbh1hJ/"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.google.com/maps/dir/%C4%90%E1%BA%A1i+H%E1%BB%8Dc+Kinh+T%E1%BA%BF+TP.HCM+(UEH)+CS+A,+Nguy%E1%BB%85n+%C4%90%C3%ACnh+Chi%E1%BB%83u,+Vo+Thi+Sau+Ward,+Qu%E1%BA%ADn+3,+H%E1%BB%93+Ch%C3%AD+Minh/441+%C4%90.+%C4%90i%E1%BB%87n+Bi%C3%AAn+Ph%E1%BB%A7,+Ph%C6%B0%E1%BB%9Dng+25,+B%C3%ACnh+Th%E1%BA%A1nh,+H%E1%BB%93+Ch%C3%AD+Minh,+Vi%E1%BB%87t+Nam/@10.798622,106.7079389,16z/data=!4m14!4m13!1m5!1m1!1s0x31752f36c74caa99:0x743c446a2eef20a5!2m2!1d106.6947434!2d10.7830898!1m5!1m1!1s0x317528a51f3d9c35:0xfacd679ef1a8fb68!2m2!1d106.7133169!2d10.8017503!3e0?entry=ttu"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.facebook.com/share/p/KcvSvkwY2S1m3sse/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Trọ út.xlsx
+++ b/Trọ út.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="11850"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1294,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1398,7 +1398,7 @@
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
